--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2043761.533210526</v>
+        <v>2041237.153988146</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9942888.828305546</v>
+        <v>9942888.828305544</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.554715486138803</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.501705603160627</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>332.2110827772208</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>51.44216579698951</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128494</v>
@@ -1607,7 +1607,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>93.979370027405</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1667,13 +1667,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201535</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,16 +1771,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433891</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124555</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1831,7 +1831,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335026</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>13.91332762480654</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
-        <v>100.2616515939381</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X19" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>321.621232626896</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2147,7 +2147,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>151.6464219970118</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X22" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>342.7996866088072</v>
+        <v>342.799686608807</v>
       </c>
       <c r="C26" t="n">
-        <v>325.3387367163342</v>
+        <v>325.338736716334</v>
       </c>
       <c r="D26" t="n">
-        <v>314.7488865660096</v>
+        <v>314.7488865660094</v>
       </c>
       <c r="E26" t="n">
-        <v>341.9962150175884</v>
+        <v>341.9962150175882</v>
       </c>
       <c r="F26" t="n">
-        <v>366.941890687038</v>
+        <v>366.9418906870379</v>
       </c>
       <c r="G26" t="n">
-        <v>370.9875705987801</v>
+        <v>370.9875705987799</v>
       </c>
       <c r="H26" t="n">
-        <v>254.6736093326471</v>
+        <v>254.6736093326469</v>
       </c>
       <c r="I26" t="n">
-        <v>1.642774718252561</v>
+        <v>1.642774718252397</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.25360673350244</v>
+        <v>69.25360673350228</v>
       </c>
       <c r="T26" t="n">
-        <v>163.9838150849467</v>
+        <v>163.9838150849466</v>
       </c>
       <c r="U26" t="n">
-        <v>211.0610169042286</v>
+        <v>211.0610169042284</v>
       </c>
       <c r="V26" t="n">
-        <v>287.8181034154615</v>
+        <v>287.8181034154613</v>
       </c>
       <c r="W26" t="n">
-        <v>309.3068136627396</v>
+        <v>309.3068136627394</v>
       </c>
       <c r="X26" t="n">
-        <v>329.7969456237956</v>
+        <v>329.7969456237955</v>
       </c>
       <c r="Y26" t="n">
-        <v>346.3037836013802</v>
+        <v>346.30378360138</v>
       </c>
     </row>
     <row r="27">
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.8978251272639</v>
+        <v>139.8978251272637</v>
       </c>
       <c r="C28" t="n">
-        <v>127.3126660439544</v>
+        <v>127.3126660439543</v>
       </c>
       <c r="D28" t="n">
-        <v>108.681317963539</v>
+        <v>108.6813179635388</v>
       </c>
       <c r="E28" t="n">
-        <v>106.4998075918958</v>
+        <v>106.4998075918956</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4868929682578</v>
+        <v>105.4868929682577</v>
       </c>
       <c r="G28" t="n">
-        <v>119.4681451500825</v>
+        <v>119.4681451500859</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>48.99799761537394</v>
+        <v>48.99799761537378</v>
       </c>
       <c r="S28" t="n">
-        <v>149.8348702767685</v>
+        <v>149.8348702767683</v>
       </c>
       <c r="T28" t="n">
-        <v>179.6147942214958</v>
+        <v>179.6147942214956</v>
       </c>
       <c r="U28" t="n">
-        <v>246.2776831509395</v>
+        <v>246.2776831509393</v>
       </c>
       <c r="V28" t="n">
-        <v>212.2034882691546</v>
+        <v>212.2034882691544</v>
       </c>
       <c r="W28" t="n">
-        <v>246.5888432819176</v>
+        <v>246.5888432819174</v>
       </c>
       <c r="X28" t="n">
-        <v>185.7755003343638</v>
+        <v>185.7755003343636</v>
       </c>
       <c r="Y28" t="n">
-        <v>178.6504982974214</v>
+        <v>178.6504982974212</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>342.7996866088072</v>
+        <v>342.7996866088071</v>
       </c>
       <c r="C29" t="n">
-        <v>325.3387367163342</v>
+        <v>325.338736716334</v>
       </c>
       <c r="D29" t="n">
-        <v>314.7488865660096</v>
+        <v>314.7488865660094</v>
       </c>
       <c r="E29" t="n">
-        <v>341.9962150175884</v>
+        <v>341.9962150175883</v>
       </c>
       <c r="F29" t="n">
-        <v>366.941890687038</v>
+        <v>366.9418906870379</v>
       </c>
       <c r="G29" t="n">
-        <v>370.9875705987801</v>
+        <v>370.9875705987799</v>
       </c>
       <c r="H29" t="n">
-        <v>254.6736093326471</v>
+        <v>254.673609332647</v>
       </c>
       <c r="I29" t="n">
-        <v>1.642774718252561</v>
+        <v>1.642774718252461</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.25360673350244</v>
+        <v>69.25360673350235</v>
       </c>
       <c r="T29" t="n">
         <v>163.9838150849467</v>
       </c>
       <c r="U29" t="n">
-        <v>211.0610169042286</v>
+        <v>211.0610169042285</v>
       </c>
       <c r="V29" t="n">
-        <v>287.8181034154615</v>
+        <v>287.8181034154614</v>
       </c>
       <c r="W29" t="n">
-        <v>309.3068136627396</v>
+        <v>309.3068136627395</v>
       </c>
       <c r="X29" t="n">
-        <v>329.7969456237956</v>
+        <v>329.7969456237955</v>
       </c>
       <c r="Y29" t="n">
-        <v>346.3037836013802</v>
+        <v>346.3037836013801</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>139.8978251272639</v>
+        <v>139.8978251272638</v>
       </c>
       <c r="C31" t="n">
         <v>127.3126660439544</v>
       </c>
       <c r="D31" t="n">
-        <v>108.681317963539</v>
+        <v>108.6813179635389</v>
       </c>
       <c r="E31" t="n">
-        <v>106.4998075918958</v>
+        <v>106.4998075918957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4868929682578</v>
+        <v>63.71591290353079</v>
       </c>
       <c r="G31" t="n">
-        <v>126.0916532043548</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8208598596474</v>
+        <v>104.8208598596473</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>56.4182653551646</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.99799761537394</v>
+        <v>48.99799761537384</v>
       </c>
       <c r="S31" t="n">
-        <v>38.39050236284987</v>
+        <v>149.8348702767684</v>
       </c>
       <c r="T31" t="n">
-        <v>179.6147942214958</v>
+        <v>179.6147942214957</v>
       </c>
       <c r="U31" t="n">
-        <v>246.2776831509395</v>
+        <v>246.2776831509394</v>
       </c>
       <c r="V31" t="n">
-        <v>212.2034882691546</v>
+        <v>212.2034882691545</v>
       </c>
       <c r="W31" t="n">
-        <v>246.5888432819176</v>
+        <v>246.5888432819175</v>
       </c>
       <c r="X31" t="n">
-        <v>185.7755003343638</v>
+        <v>185.7755003343637</v>
       </c>
       <c r="Y31" t="n">
-        <v>178.6504982974214</v>
+        <v>178.6504982974213</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.0109877805085</v>
+        <v>341.0109877805084</v>
       </c>
       <c r="C32" t="n">
-        <v>323.5500378880355</v>
+        <v>323.5500378880354</v>
       </c>
       <c r="D32" t="n">
-        <v>312.9601877377109</v>
+        <v>312.9601877377108</v>
       </c>
       <c r="E32" t="n">
-        <v>340.2075161892897</v>
+        <v>340.2075161892896</v>
       </c>
       <c r="F32" t="n">
-        <v>365.1531918587394</v>
+        <v>365.1531918587393</v>
       </c>
       <c r="G32" t="n">
-        <v>369.1988717704814</v>
+        <v>369.1988717704813</v>
       </c>
       <c r="H32" t="n">
-        <v>252.8849105043484</v>
+        <v>252.8849105043483</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.4649079052038</v>
+        <v>67.46490790520366</v>
       </c>
       <c r="T32" t="n">
-        <v>162.1951162566481</v>
+        <v>162.195116256648</v>
       </c>
       <c r="U32" t="n">
-        <v>209.2723180759299</v>
+        <v>209.2723180759298</v>
       </c>
       <c r="V32" t="n">
-        <v>286.0294045871628</v>
+        <v>286.0294045871627</v>
       </c>
       <c r="W32" t="n">
-        <v>307.518114834441</v>
+        <v>307.5181148344408</v>
       </c>
       <c r="X32" t="n">
-        <v>328.008246795497</v>
+        <v>328.0082467954969</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.5150847730815</v>
+        <v>344.5150847730814</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.1091262989653</v>
+        <v>138.1091262989651</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5239672156558</v>
+        <v>125.5239672156557</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8926191352403</v>
+        <v>106.8926191352402</v>
       </c>
       <c r="E34" t="n">
-        <v>104.7111087635971</v>
+        <v>104.711108763597</v>
       </c>
       <c r="F34" t="n">
-        <v>103.6981941399592</v>
+        <v>103.6981941399591</v>
       </c>
       <c r="G34" t="n">
-        <v>124.3029543760562</v>
+        <v>102.1164931640265</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0321610313487</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>54.62956652686606</v>
+        <v>54.62956652686591</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.2092987870753</v>
+        <v>47.20929878707515</v>
       </c>
       <c r="S34" t="n">
-        <v>148.0461714484699</v>
+        <v>148.0461714484697</v>
       </c>
       <c r="T34" t="n">
-        <v>177.8260953931972</v>
+        <v>177.826095393197</v>
       </c>
       <c r="U34" t="n">
-        <v>244.4889843226408</v>
+        <v>244.4889843226407</v>
       </c>
       <c r="V34" t="n">
-        <v>210.414789440856</v>
+        <v>210.4147894408558</v>
       </c>
       <c r="W34" t="n">
-        <v>244.800144453619</v>
+        <v>244.8001444536188</v>
       </c>
       <c r="X34" t="n">
-        <v>58.76817926268346</v>
+        <v>183.986801506065</v>
       </c>
       <c r="Y34" t="n">
-        <v>176.8617994691228</v>
+        <v>176.8617994691226</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524151</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958341</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403096</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797676</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433883</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572837</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124568</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145491</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335024</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524151</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958341</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403096</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797676</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433883</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572837</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124568</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145491</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335024</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>24.92366227377625</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>17.97816152457278</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>11.0326607753693</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>4.087160026165831</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>4.087160026165831</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>4.087160026165831</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>6.332355027714333</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.13964031200866</v>
       </c>
       <c r="M8" t="n">
-        <v>20.97193951221988</v>
+        <v>13.13964031200866</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>19.94692559630298</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>19.94692559630298</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>26.7542108805973</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5500836593369149</v>
+        <v>4.791968026857283</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>4.791968026857283</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>11.59925331115161</v>
       </c>
       <c r="M9" t="n">
-        <v>14.16465422792556</v>
+        <v>18.40653859544593</v>
       </c>
       <c r="N9" t="n">
-        <v>20.97193951221988</v>
+        <v>25.21382387974025</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>25.21382387974025</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4917,16 +4917,16 @@
         <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,10 +4969,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4984,28 +4984,28 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.936470383459</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.423586391121</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="D11" t="n">
-        <v>1022.607520732444</v>
+        <v>990.5514538055349</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822729</v>
+        <v>652.212834155364</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822729</v>
+        <v>652.212834155364</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753427</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767878</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445837</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2046.048461132831</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1994.086677499508</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228021</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
         <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5200,7 +5200,7 @@
         <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L13" t="n">
         <v>771.697886033711</v>
@@ -5224,25 +5224,25 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1707.656676566318</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.143792573979</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
         <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822742</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.836129491001</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.755285712911</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.142031317414</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W14" t="n">
-        <v>2372.823008995373</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>2046.806883682366</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>2046.806883682366</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5431,55 +5431,55 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315254</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337118</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1358.621238582485</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C17" t="n">
-        <v>1358.621238582485</v>
+        <v>979.8546354718749</v>
       </c>
       <c r="D17" t="n">
-        <v>1047.805172923808</v>
+        <v>669.0385698131977</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923808</v>
+        <v>330.6999501630266</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822733</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G17" t="n">
         <v>316.646083875343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5534,31 +5534,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T17" t="n">
-        <v>3161.490390534907</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
-        <v>2955.409546756816</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V17" t="n">
-        <v>2671.796292361319</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W17" t="n">
-        <v>2366.477270039278</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X17" t="n">
-        <v>2040.461144726271</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y17" t="n">
-        <v>1697.771445698533</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,7 +5610,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5653,43 +5653,43 @@
         <v>637.979699825461</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H19" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107746</v>
@@ -5698,7 +5698,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
         <v>1938.403572105846</v>
@@ -5716,7 +5716,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232656</v>
+        <v>979.8546354718736</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.143792573978</v>
+        <v>979.8546354718736</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923808</v>
+        <v>641.5160158217027</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822733</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,28 +5750,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5783,19 +5783,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>3104.236671416635</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2820.623417021137</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2515.304394699097</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2189.28826938609</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y20" t="n">
-        <v>2036.110065348704</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
         <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H22" t="n">
         <v>116.3881606657648</v>
@@ -5908,13 +5908,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5923,10 +5923,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107746</v>
@@ -5935,7 +5935,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
         <v>1938.403572105846</v>
@@ -5953,7 +5953,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5966,10 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E23" t="n">
         <v>1062.439973388313</v>
@@ -5981,10 +5981,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
@@ -5999,31 +5999,31 @@
         <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424367</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
@@ -6063,16 +6063,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
@@ -6151,7 +6151,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6160,37 +6160,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2079.505420603327</v>
+        <v>2079.505420603325</v>
       </c>
       <c r="C26" t="n">
-        <v>1750.880434021171</v>
+        <v>1750.880434021169</v>
       </c>
       <c r="D26" t="n">
-        <v>1432.952265772677</v>
+        <v>1432.952265772675</v>
       </c>
       <c r="E26" t="n">
-        <v>1087.501543532688</v>
+        <v>1087.501543532687</v>
       </c>
       <c r="F26" t="n">
-        <v>716.8531691013366</v>
+        <v>716.8531691013354</v>
       </c>
       <c r="G26" t="n">
-        <v>342.118249304589</v>
+        <v>342.1182493045882</v>
       </c>
       <c r="H26" t="n">
-        <v>84.87217927161178</v>
+        <v>84.87217927161156</v>
       </c>
       <c r="I26" t="n">
-        <v>83.21281086933647</v>
+        <v>83.21281086933641</v>
       </c>
       <c r="J26" t="n">
-        <v>272.0919418283619</v>
+        <v>439.4975908487149</v>
       </c>
       <c r="K26" t="n">
-        <v>926.8152739636614</v>
+        <v>1094.220922984014</v>
       </c>
       <c r="L26" t="n">
-        <v>1377.84948721207</v>
+        <v>1545.255136232423</v>
       </c>
       <c r="M26" t="n">
-        <v>1911.381391883995</v>
+        <v>2078.787040904348</v>
       </c>
       <c r="N26" t="n">
-        <v>2458.160208942777</v>
+        <v>2625.56585796313</v>
       </c>
       <c r="O26" t="n">
-        <v>2961.132679822114</v>
+        <v>3393.503493122905</v>
       </c>
       <c r="P26" t="n">
-        <v>3643.145274401033</v>
+        <v>3788.277859480083</v>
       </c>
       <c r="Q26" t="n">
-        <v>4101.623476910021</v>
+        <v>4036.564221235765</v>
       </c>
       <c r="R26" t="n">
-        <v>4160.640543466823</v>
+        <v>4160.64054346682</v>
       </c>
       <c r="S26" t="n">
-        <v>4090.687405352174</v>
+        <v>4090.687405352171</v>
       </c>
       <c r="T26" t="n">
-        <v>3925.047188094652</v>
+        <v>3925.047188094649</v>
       </c>
       <c r="U26" t="n">
-        <v>3711.854241726745</v>
+        <v>3711.854241726742</v>
       </c>
       <c r="V26" t="n">
-        <v>3421.128884741431</v>
+        <v>3421.128884741428</v>
       </c>
       <c r="W26" t="n">
-        <v>3108.697759829573</v>
+        <v>3108.69775982957</v>
       </c>
       <c r="X26" t="n">
-        <v>2775.569531926749</v>
+        <v>2775.569531926746</v>
       </c>
       <c r="Y26" t="n">
-        <v>2425.767730309193</v>
+        <v>2425.76773030919</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>958.2445489182618</v>
+        <v>958.2445489182616</v>
       </c>
       <c r="C27" t="n">
-        <v>783.7915196371348</v>
+        <v>783.7915196371346</v>
       </c>
       <c r="D27" t="n">
-        <v>634.8571099758835</v>
+        <v>634.8571099758833</v>
       </c>
       <c r="E27" t="n">
-        <v>475.619654970428</v>
+        <v>475.6196549704279</v>
       </c>
       <c r="F27" t="n">
-        <v>329.0850969973129</v>
+        <v>329.0850969973128</v>
       </c>
       <c r="G27" t="n">
-        <v>192.721996829931</v>
+        <v>192.7219968299309</v>
       </c>
       <c r="H27" t="n">
         <v>102.2201024677985</v>
       </c>
       <c r="I27" t="n">
-        <v>83.21281086933647</v>
+        <v>83.21281086933641</v>
       </c>
       <c r="J27" t="n">
-        <v>176.8900803599538</v>
+        <v>176.8900803599537</v>
       </c>
       <c r="K27" t="n">
-        <v>415.154279340301</v>
+        <v>415.1542793403009</v>
       </c>
       <c r="L27" t="n">
-        <v>781.8524396529664</v>
+        <v>781.8524396529663</v>
       </c>
       <c r="M27" t="n">
         <v>1229.128764875282</v>
@@ -6336,7 +6336,7 @@
         <v>2259.528996734345</v>
       </c>
       <c r="U27" t="n">
-        <v>2031.461149868761</v>
+        <v>2031.46114986876</v>
       </c>
       <c r="V27" t="n">
         <v>1796.309041637018</v>
@@ -6345,7 +6345,7 @@
         <v>1542.071684908816</v>
       </c>
       <c r="X27" t="n">
-        <v>1334.220184703284</v>
+        <v>1334.220184703283</v>
       </c>
       <c r="Y27" t="n">
         <v>1126.45988593833</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>656.3934469478512</v>
+        <v>656.3934469478539</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7947943782002</v>
+        <v>527.7947943782032</v>
       </c>
       <c r="D28" t="n">
-        <v>418.0156853241205</v>
+        <v>418.0156853241235</v>
       </c>
       <c r="E28" t="n">
-        <v>310.4401220999833</v>
+        <v>310.4401220999865</v>
       </c>
       <c r="F28" t="n">
-        <v>203.8877049603289</v>
+        <v>203.8877049603323</v>
       </c>
       <c r="G28" t="n">
-        <v>83.21281086933647</v>
+        <v>83.21281086933641</v>
       </c>
       <c r="H28" t="n">
-        <v>83.21281086933647</v>
+        <v>83.21281086933641</v>
       </c>
       <c r="I28" t="n">
-        <v>83.21281086933647</v>
+        <v>83.21281086933641</v>
       </c>
       <c r="J28" t="n">
-        <v>167.8702568203987</v>
+        <v>167.8702568203988</v>
       </c>
       <c r="K28" t="n">
-        <v>411.3922532734017</v>
+        <v>411.392253273402</v>
       </c>
       <c r="L28" t="n">
-        <v>767.4868652260245</v>
+        <v>767.486865226025</v>
       </c>
       <c r="M28" t="n">
-        <v>1151.1787243297</v>
+        <v>1151.178724329701</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.121914539691</v>
+        <v>1532.121914539692</v>
       </c>
       <c r="O28" t="n">
-        <v>1870.986326964231</v>
+        <v>1870.986326964232</v>
       </c>
       <c r="P28" t="n">
-        <v>2143.128640902018</v>
+        <v>2143.128640902019</v>
       </c>
       <c r="Q28" t="n">
-        <v>2260.273750558659</v>
+        <v>2260.27375055866</v>
       </c>
       <c r="R28" t="n">
-        <v>2210.780823674443</v>
+        <v>2210.780823674444</v>
       </c>
       <c r="S28" t="n">
-        <v>2059.432469859525</v>
+        <v>2059.432469859526</v>
       </c>
       <c r="T28" t="n">
-        <v>1878.003384787307</v>
+        <v>1878.003384787309</v>
       </c>
       <c r="U28" t="n">
-        <v>1629.238048271206</v>
+        <v>1629.238048271208</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.891090423575</v>
+        <v>1414.891090423577</v>
       </c>
       <c r="W28" t="n">
-        <v>1165.811450744871</v>
+        <v>1165.811450744873</v>
       </c>
       <c r="X28" t="n">
-        <v>978.1594302051092</v>
+        <v>978.1594302051117</v>
       </c>
       <c r="Y28" t="n">
-        <v>797.7043814198349</v>
+        <v>797.7043814198375</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2079.505420603327</v>
+        <v>2079.505420603326</v>
       </c>
       <c r="C29" t="n">
-        <v>1750.880434021172</v>
+        <v>1750.88043402117</v>
       </c>
       <c r="D29" t="n">
-        <v>1432.952265772677</v>
+        <v>1432.952265772675</v>
       </c>
       <c r="E29" t="n">
-        <v>1087.501543532689</v>
+        <v>1087.501543532687</v>
       </c>
       <c r="F29" t="n">
-        <v>716.8531691013372</v>
+        <v>716.8531691013363</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1182493045886</v>
+        <v>342.1182493045884</v>
       </c>
       <c r="H29" t="n">
-        <v>84.8721792716118</v>
+        <v>84.87217927161167</v>
       </c>
       <c r="I29" t="n">
-        <v>83.21281086933648</v>
+        <v>83.21281086933645</v>
       </c>
       <c r="J29" t="n">
-        <v>272.0919418283619</v>
+        <v>439.4975908487149</v>
       </c>
       <c r="K29" t="n">
-        <v>926.8152739636614</v>
+        <v>1094.220922984015</v>
       </c>
       <c r="L29" t="n">
-        <v>1377.84948721207</v>
+        <v>1545.255136232423</v>
       </c>
       <c r="M29" t="n">
-        <v>1911.381391883995</v>
+        <v>2408.81146085904</v>
       </c>
       <c r="N29" t="n">
-        <v>2458.160208942777</v>
+        <v>2955.590277917823</v>
       </c>
       <c r="O29" t="n">
-        <v>2961.132679822114</v>
+        <v>3458.56274879716</v>
       </c>
       <c r="P29" t="n">
-        <v>3643.145274401034</v>
+        <v>3853.337115154338</v>
       </c>
       <c r="Q29" t="n">
-        <v>4101.623476910022</v>
+        <v>4101.62347691002</v>
       </c>
       <c r="R29" t="n">
-        <v>4160.640543466824</v>
+        <v>4160.640543466822</v>
       </c>
       <c r="S29" t="n">
-        <v>4090.687405352175</v>
+        <v>4090.687405352173</v>
       </c>
       <c r="T29" t="n">
-        <v>3925.047188094653</v>
+        <v>3925.047188094652</v>
       </c>
       <c r="U29" t="n">
-        <v>3711.854241726745</v>
+        <v>3711.854241726744</v>
       </c>
       <c r="V29" t="n">
-        <v>3421.128884741431</v>
+        <v>3421.128884741429</v>
       </c>
       <c r="W29" t="n">
-        <v>3108.697759829573</v>
+        <v>3108.697759829571</v>
       </c>
       <c r="X29" t="n">
-        <v>2775.569531926749</v>
+        <v>2775.569531926747</v>
       </c>
       <c r="Y29" t="n">
-        <v>2425.767730309193</v>
+        <v>2425.767730309191</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>958.2445489182618</v>
+        <v>958.2445489182616</v>
       </c>
       <c r="C30" t="n">
-        <v>783.7915196371348</v>
+        <v>783.7915196371346</v>
       </c>
       <c r="D30" t="n">
-        <v>634.8571099758835</v>
+        <v>634.8571099758833</v>
       </c>
       <c r="E30" t="n">
-        <v>475.619654970428</v>
+        <v>475.6196549704279</v>
       </c>
       <c r="F30" t="n">
         <v>329.0850969973129</v>
@@ -6537,7 +6537,7 @@
         <v>102.2201024677985</v>
       </c>
       <c r="I30" t="n">
-        <v>83.21281086933648</v>
+        <v>83.21281086933645</v>
       </c>
       <c r="J30" t="n">
         <v>176.8900803599538</v>
@@ -6573,7 +6573,7 @@
         <v>2259.528996734345</v>
       </c>
       <c r="U30" t="n">
-        <v>2031.461149868761</v>
+        <v>2031.46114986876</v>
       </c>
       <c r="V30" t="n">
         <v>1796.309041637018</v>
@@ -6582,7 +6582,7 @@
         <v>1542.071684908816</v>
       </c>
       <c r="X30" t="n">
-        <v>1334.220184703284</v>
+        <v>1334.220184703283</v>
       </c>
       <c r="Y30" t="n">
         <v>1126.45988593833</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.9635155477699</v>
+        <v>656.3934469478531</v>
       </c>
       <c r="C31" t="n">
-        <v>640.3648629781189</v>
+        <v>527.7947943782023</v>
       </c>
       <c r="D31" t="n">
-        <v>530.5857539240392</v>
+        <v>418.0156853241226</v>
       </c>
       <c r="E31" t="n">
-        <v>423.0101906999021</v>
+        <v>310.4401220999855</v>
       </c>
       <c r="F31" t="n">
-        <v>316.4577735602477</v>
+        <v>246.0806141166212</v>
       </c>
       <c r="G31" t="n">
-        <v>189.0924672932227</v>
+        <v>246.0806141166212</v>
       </c>
       <c r="H31" t="n">
-        <v>83.21281086933648</v>
+        <v>140.200957692735</v>
       </c>
       <c r="I31" t="n">
-        <v>83.21281086933648</v>
+        <v>83.21281086933645</v>
       </c>
       <c r="J31" t="n">
-        <v>167.8702568203987</v>
+        <v>167.8702568203988</v>
       </c>
       <c r="K31" t="n">
-        <v>411.3922532734018</v>
+        <v>411.3922532734019</v>
       </c>
       <c r="L31" t="n">
         <v>767.4868652260247</v>
       </c>
       <c r="M31" t="n">
-        <v>1151.1787243297</v>
+        <v>1151.178724329701</v>
       </c>
       <c r="N31" t="n">
         <v>1532.121914539692</v>
@@ -6640,31 +6640,31 @@
         <v>2143.128640902018</v>
       </c>
       <c r="Q31" t="n">
-        <v>2260.273750558659</v>
+        <v>2260.27375055866</v>
       </c>
       <c r="R31" t="n">
-        <v>2210.780823674443</v>
+        <v>2210.780823674444</v>
       </c>
       <c r="S31" t="n">
-        <v>2172.002538459443</v>
+        <v>2059.432469859526</v>
       </c>
       <c r="T31" t="n">
-        <v>1990.573453387225</v>
+        <v>1878.003384787308</v>
       </c>
       <c r="U31" t="n">
-        <v>1741.808116871125</v>
+        <v>1629.238048271208</v>
       </c>
       <c r="V31" t="n">
-        <v>1527.461159023494</v>
+        <v>1414.891090423577</v>
       </c>
       <c r="W31" t="n">
-        <v>1278.381519344789</v>
+        <v>1165.811450744872</v>
       </c>
       <c r="X31" t="n">
-        <v>1090.729498805028</v>
+        <v>978.159430205111</v>
       </c>
       <c r="Y31" t="n">
-        <v>910.2744500197537</v>
+        <v>797.7043814198369</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2066.455369582328</v>
+        <v>2066.455369582327</v>
       </c>
       <c r="C32" t="n">
-        <v>1739.637149493404</v>
+        <v>1739.637149493403</v>
       </c>
       <c r="D32" t="n">
-        <v>1423.51574773814</v>
+        <v>1423.515747738139</v>
       </c>
       <c r="E32" t="n">
-        <v>1079.871791991383</v>
+        <v>1079.871791991382</v>
       </c>
       <c r="F32" t="n">
-        <v>711.0301840532625</v>
+        <v>711.0301840532618</v>
       </c>
       <c r="G32" t="n">
-        <v>338.1020307497455</v>
+        <v>338.1020307497453</v>
       </c>
       <c r="H32" t="n">
-        <v>82.66272720999957</v>
+        <v>82.66272720999952</v>
       </c>
       <c r="I32" t="n">
-        <v>82.66272720999957</v>
+        <v>82.66272720999952</v>
       </c>
       <c r="J32" t="n">
         <v>438.947507189378</v>
       </c>
       <c r="K32" t="n">
-        <v>772.7668808792246</v>
+        <v>772.7668808792245</v>
       </c>
       <c r="L32" t="n">
         <v>1223.801094127633</v>
       </c>
       <c r="M32" t="n">
-        <v>1757.332998799558</v>
+        <v>1939.255842767823</v>
       </c>
       <c r="N32" t="n">
-        <v>2304.11181585834</v>
+        <v>2486.034659826606</v>
       </c>
       <c r="O32" t="n">
-        <v>2837.22674831299</v>
+        <v>3365.99931015606</v>
       </c>
       <c r="P32" t="n">
-        <v>3550.581835759936</v>
+        <v>3760.773676513239</v>
       </c>
       <c r="Q32" t="n">
-        <v>4009.060038268924</v>
+        <v>4009.060038268921</v>
       </c>
       <c r="R32" t="n">
-        <v>4133.136360499979</v>
+        <v>4133.136360499976</v>
       </c>
       <c r="S32" t="n">
-        <v>4064.98998887856</v>
+        <v>4064.989988878558</v>
       </c>
       <c r="T32" t="n">
-        <v>3901.156538114269</v>
+        <v>3901.156538114267</v>
       </c>
       <c r="U32" t="n">
-        <v>3689.770358239592</v>
+        <v>3689.770358239591</v>
       </c>
       <c r="V32" t="n">
-        <v>3400.851767747509</v>
+        <v>3400.851767747507</v>
       </c>
       <c r="W32" t="n">
-        <v>3090.227409328882</v>
+        <v>3090.22740932888</v>
       </c>
       <c r="X32" t="n">
-        <v>2758.905947919288</v>
+        <v>2758.905947919287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2410.910912794963</v>
+        <v>2410.910912794962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>957.6944652589249</v>
+        <v>957.6944652589247</v>
       </c>
       <c r="C33" t="n">
-        <v>783.2414359777979</v>
+        <v>783.2414359777977</v>
       </c>
       <c r="D33" t="n">
-        <v>634.3070263165466</v>
+        <v>634.3070263165464</v>
       </c>
       <c r="E33" t="n">
-        <v>475.0695713110911</v>
+        <v>475.069571311091</v>
       </c>
       <c r="F33" t="n">
-        <v>328.535013337976</v>
+        <v>328.5350133379759</v>
       </c>
       <c r="G33" t="n">
-        <v>192.1719131705941</v>
+        <v>192.171913170594</v>
       </c>
       <c r="H33" t="n">
-        <v>101.6700188084616</v>
+        <v>101.6700188084615</v>
       </c>
       <c r="I33" t="n">
-        <v>82.66272720999957</v>
+        <v>82.66272720999952</v>
       </c>
       <c r="J33" t="n">
-        <v>176.3399967006169</v>
+        <v>176.3399967006168</v>
       </c>
       <c r="K33" t="n">
         <v>414.604195680964</v>
@@ -6789,22 +6789,22 @@
         <v>1228.578681215945</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.1017247704</v>
+        <v>1702.101724770399</v>
       </c>
       <c r="O33" t="n">
-        <v>2113.063004188455</v>
+        <v>2113.063004188454</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.562595664558</v>
+        <v>2423.562595664557</v>
       </c>
       <c r="Q33" t="n">
         <v>2581.204153311157</v>
       </c>
       <c r="R33" t="n">
-        <v>2581.059799903673</v>
+        <v>2581.059799903672</v>
       </c>
       <c r="S33" t="n">
-        <v>2451.621913397153</v>
+        <v>2451.621913397152</v>
       </c>
       <c r="T33" t="n">
         <v>2258.978913075008</v>
@@ -6816,10 +6816,10 @@
         <v>1795.758957977681</v>
       </c>
       <c r="W33" t="n">
-        <v>1541.52160124948</v>
+        <v>1541.521601249479</v>
       </c>
       <c r="X33" t="n">
-        <v>1333.670101043947</v>
+        <v>1333.670101043946</v>
       </c>
       <c r="Y33" t="n">
         <v>1125.909802278993</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>812.7542132592151</v>
+        <v>686.2707564477209</v>
       </c>
       <c r="C34" t="n">
-        <v>685.9623271827951</v>
+        <v>559.478870371301</v>
       </c>
       <c r="D34" t="n">
-        <v>577.9899846219463</v>
+        <v>451.5065278104523</v>
       </c>
       <c r="E34" t="n">
-        <v>472.2211878910401</v>
+        <v>345.7377310795462</v>
       </c>
       <c r="F34" t="n">
-        <v>367.4755372446167</v>
+        <v>240.9920804331229</v>
       </c>
       <c r="G34" t="n">
-        <v>241.9169974708226</v>
+        <v>137.8441075401671</v>
       </c>
       <c r="H34" t="n">
-        <v>137.8441075401673</v>
+        <v>137.8441075401671</v>
       </c>
       <c r="I34" t="n">
-        <v>82.66272720999957</v>
+        <v>82.66272720999952</v>
       </c>
       <c r="J34" t="n">
-        <v>169.0909850010773</v>
+        <v>169.0909850010775</v>
       </c>
       <c r="K34" t="n">
-        <v>414.383793294096</v>
+        <v>414.3837932940963</v>
       </c>
       <c r="L34" t="n">
-        <v>772.2492170867347</v>
+        <v>772.2492170867349</v>
       </c>
       <c r="M34" t="n">
         <v>1157.711888030426</v>
@@ -6871,37 +6871,37 @@
         <v>1540.425890080433</v>
       </c>
       <c r="O34" t="n">
-        <v>1881.061114344988</v>
+        <v>1881.061114344989</v>
       </c>
       <c r="P34" t="n">
-        <v>2154.97424012279</v>
+        <v>2154.974240122791</v>
       </c>
       <c r="Q34" t="n">
-        <v>2273.890161619447</v>
+        <v>2273.890161619448</v>
       </c>
       <c r="R34" t="n">
-        <v>2226.204001228462</v>
+        <v>2226.204001228463</v>
       </c>
       <c r="S34" t="n">
-        <v>2076.662413906775</v>
+        <v>2076.662413906777</v>
       </c>
       <c r="T34" t="n">
-        <v>1897.040095327788</v>
+        <v>1897.04009532779</v>
       </c>
       <c r="U34" t="n">
-        <v>1650.081525304919</v>
+        <v>1650.08152530492</v>
       </c>
       <c r="V34" t="n">
-        <v>1437.541333950518</v>
+        <v>1437.541333950521</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.268460765045</v>
+        <v>1190.268460765047</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.906663530011</v>
+        <v>1004.423206718517</v>
       </c>
       <c r="Y34" t="n">
-        <v>952.2583812379679</v>
+        <v>825.7749244264736</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>2033.107542689501</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398489</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603405</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641924</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833288</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
         <v>779.7865456803191</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698012</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899675</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302707</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668921</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973168</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982195</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350175</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308446</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481266</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167332</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277855</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347425</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519678</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.90370154678</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398489</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873066</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698012</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899675</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973168</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982195</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350175</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308446</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481266</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167332</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277855</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347425</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519678</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2456.09431497013</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O41" t="n">
-        <v>3336.058965299585</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P41" t="n">
-        <v>3730.833331656763</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3979.119693412445</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643396</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350172</v>
@@ -7585,34 +7585,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
@@ -7640,10 +7640,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7652,25 +7652,25 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.429937623799</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7682,16 +7682,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7731,7 +7731,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7801,7 +7801,7 @@
         <v>131.0229611302707</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>214.3051585534485</v>
+        <v>213.2697909616147</v>
       </c>
       <c r="L8" t="n">
-        <v>226.9356953943038</v>
+        <v>226.9356953943057</v>
       </c>
       <c r="M8" t="n">
-        <v>219.7454761837045</v>
+        <v>212.8694304419952</v>
       </c>
       <c r="N8" t="n">
-        <v>218.251693582554</v>
+        <v>218.5295136125243</v>
       </c>
       <c r="O8" t="n">
-        <v>213.3283287806765</v>
+        <v>213.3283287806785</v>
       </c>
       <c r="P8" t="n">
-        <v>216.9202889061145</v>
+        <v>223.7963346478277</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.5574430980363</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.8063036560442</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.2421065718667</v>
+        <v>129.2421065718677</v>
       </c>
       <c r="L9" t="n">
-        <v>133.8675618829029</v>
+        <v>133.8675618829043</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5167631824309</v>
+        <v>135.5167631824324</v>
       </c>
       <c r="N9" t="n">
-        <v>124.3673134071021</v>
+        <v>124.3673134071038</v>
       </c>
       <c r="O9" t="n">
-        <v>136.5240194177245</v>
+        <v>129.9257937059827</v>
       </c>
       <c r="P9" t="n">
-        <v>123.8052536500444</v>
+        <v>126.1187476774249</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.183964100359</v>
+        <v>133.1839641003598</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>135.1230412368116</v>
+        <v>135.1230412368124</v>
       </c>
       <c r="M10" t="n">
-        <v>138.8033259718541</v>
+        <v>138.5255059418868</v>
       </c>
       <c r="N10" t="n">
-        <v>127.7294952654586</v>
+        <v>127.7294952654594</v>
       </c>
       <c r="O10" t="n">
-        <v>138.7442186785136</v>
+        <v>139.0220387084825</v>
       </c>
       <c r="P10" t="n">
-        <v>132.3282422062479</v>
+        <v>132.3282422062485</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>233.4533865158194</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>267.6415800812504</v>
       </c>
       <c r="P26" t="n">
-        <v>290.139624466405</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>333.3579999542349</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>290.1396244664059</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>183.7604484527932</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>30.4469308841542</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.001785447392</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.7369666428387</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544153</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>21.74982042514819</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>19.40311602546662</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>274.8351763665426</v>
+        <v>240.9710754359426</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.327160602107961</v>
+        <v>8.327160602107972</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.73550625764007</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.8206362404715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>62.96346349362261</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866694</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>345.9875814983124</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>56.68118192708945</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23969,19 +23969,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>38.27967649622284</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.6163800404492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.623508054272321</v>
+        <v>6.623508054268768</v>
       </c>
       <c r="H28" t="n">
-        <v>104.8208598596474</v>
+        <v>104.8208598596472</v>
       </c>
       <c r="I28" t="n">
-        <v>56.4182653551647</v>
+        <v>56.41826535516454</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>41.77098006472696</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>126.0916532043547</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.4182653551647</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>111.4443679139186</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.18646121202952</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>103.0321610313486</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>125.2186222433816</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>898091.2996783486</v>
+        <v>898091.2996783492</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773680.1693650278</v>
+        <v>773680.1693650279</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>850836.23696778</v>
+        <v>850836.2369677799</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377791</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="D2" t="n">
-        <v>615284.1959102663</v>
+        <v>615284.1959102661</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.2574173821</v>
+        <v>573398.2574173816</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.2574173823</v>
+        <v>573398.2574173822</v>
       </c>
       <c r="G2" t="n">
-        <v>573398.2574173823</v>
+        <v>573398.2574173819</v>
       </c>
       <c r="H2" t="n">
-        <v>573398.2574173827</v>
+        <v>573398.2574173816</v>
       </c>
       <c r="I2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="J2" t="n">
+        <v>612759.7999993693</v>
+      </c>
+      <c r="K2" t="n">
+        <v>612759.7999993697</v>
+      </c>
+      <c r="L2" t="n">
+        <v>613527.3921978321</v>
+      </c>
+      <c r="M2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="J2" t="n">
-        <v>612759.7999993698</v>
-      </c>
-      <c r="K2" t="n">
-        <v>612759.7999993698</v>
-      </c>
-      <c r="L2" t="n">
-        <v>613527.3921978325</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="O2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="N2" t="n">
-        <v>615781.3273982127</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>615781.327398213</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615781.3273982129</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23339.32836583979</v>
+        <v>23339.32836583726</v>
       </c>
       <c r="E3" t="n">
-        <v>1139404.171792177</v>
+        <v>1139404.171792179</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902289</v>
+        <v>48646.25967902292</v>
       </c>
       <c r="J3" t="n">
-        <v>38703.93357598037</v>
+        <v>38703.93357598026</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.587833922822028e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>1430.959062638919</v>
+        <v>1430.959062638954</v>
       </c>
       <c r="M3" t="n">
-        <v>204955.0314610743</v>
+        <v>204955.0314610744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31947.32404373883</v>
+        <v>31947.32404373879</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>419092.9909151979</v>
+        <v>419092.9909151986</v>
       </c>
       <c r="E4" t="n">
-        <v>56995.66948357392</v>
+        <v>56995.6694835739</v>
       </c>
       <c r="F4" t="n">
-        <v>56995.66948357392</v>
+        <v>56995.6694835739</v>
       </c>
       <c r="G4" t="n">
-        <v>56995.66948357395</v>
+        <v>56995.66948357391</v>
       </c>
       <c r="H4" t="n">
-        <v>56995.66948357391</v>
+        <v>56995.6694835739</v>
       </c>
       <c r="I4" t="n">
+        <v>78703.96570883348</v>
+      </c>
+      <c r="J4" t="n">
+        <v>74898.39959446479</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74898.39959446478</v>
+      </c>
+      <c r="L4" t="n">
+        <v>75883.37400635568</v>
+      </c>
+      <c r="M4" t="n">
+        <v>78703.96570883348</v>
+      </c>
+      <c r="N4" t="n">
+        <v>78703.96570883348</v>
+      </c>
+      <c r="O4" t="n">
         <v>78703.96570883345</v>
       </c>
-      <c r="J4" t="n">
-        <v>74898.39959446472</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74898.39959446475</v>
-      </c>
-      <c r="L4" t="n">
-        <v>75883.37400635562</v>
-      </c>
-      <c r="M4" t="n">
-        <v>78703.96570883345</v>
-      </c>
-      <c r="N4" t="n">
-        <v>78703.96570883341</v>
-      </c>
-      <c r="O4" t="n">
-        <v>78703.96570883352</v>
-      </c>
       <c r="P4" t="n">
-        <v>78703.96570883346</v>
+        <v>78703.96570883348</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34585.396240348</v>
+        <v>34585.39624034795</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>90356.09281492095</v>
+        <v>90356.09281492092</v>
       </c>
       <c r="K5" t="n">
-        <v>90356.09281492096</v>
+        <v>90356.09281492094</v>
       </c>
       <c r="L5" t="n">
-        <v>90088.40335562115</v>
+        <v>90088.40335562112</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155306.5148716756</v>
+        <v>155302.1012938073</v>
       </c>
       <c r="C6" t="n">
-        <v>155306.5148716751</v>
+        <v>155302.1012938073</v>
       </c>
       <c r="D6" t="n">
-        <v>138266.4803888806</v>
+        <v>138264.8232839225</v>
       </c>
       <c r="E6" t="n">
-        <v>-701257.0771801501</v>
+        <v>-701398.3540800895</v>
       </c>
       <c r="F6" t="n">
-        <v>438147.0946120264</v>
+        <v>438005.8177120905</v>
       </c>
       <c r="G6" t="n">
-        <v>438147.0946120266</v>
+        <v>438005.8177120901</v>
       </c>
       <c r="H6" t="n">
-        <v>438147.0946120269</v>
+        <v>438005.8177120899</v>
       </c>
       <c r="I6" t="n">
-        <v>399053.1603355503</v>
+        <v>399053.16033555</v>
       </c>
       <c r="J6" t="n">
-        <v>408801.3740140038</v>
+        <v>408791.3022560072</v>
       </c>
       <c r="K6" t="n">
-        <v>447505.307589984</v>
+        <v>447495.2358319876</v>
       </c>
       <c r="L6" t="n">
-        <v>446124.6557732167</v>
+        <v>446117.1426558818</v>
       </c>
       <c r="M6" t="n">
-        <v>242744.3885534989</v>
+        <v>242744.3885534987</v>
       </c>
       <c r="N6" t="n">
-        <v>447699.4200145732</v>
+        <v>447699.4200145729</v>
       </c>
       <c r="O6" t="n">
         <v>415752.0959708345</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="K2" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="L2" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.75837886476864</v>
+        <v>24.75837886476569</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,28 +26796,28 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
-        <v>1040.160135866706</v>
+        <v>1040.160135866705</v>
       </c>
       <c r="K4" t="n">
         <v>1040.160135866706</v>
       </c>
       <c r="L4" t="n">
-        <v>1033.284090124995</v>
+        <v>1033.284090124994</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467356</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.788698828298649</v>
+        <v>1.788698828298692</v>
       </c>
       <c r="M2" t="n">
-        <v>5.252282735620383</v>
+        <v>5.252282735620369</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.93415505467354</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.75837886476864</v>
+        <v>24.75837886476569</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.018321728529</v>
+        <v>1065.018321728533</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605813</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>182.9350058063219</v>
       </c>
       <c r="J4" t="n">
-        <v>25.82367465809136</v>
+        <v>25.82367465809045</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>805.5777807442016</v>
+        <v>805.5777807442021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467356</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>352.1283261345442</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.0543243305503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.4554785075307</v>
+        <v>338.4554785075308</v>
       </c>
       <c r="I8" t="n">
-        <v>206.6387140882592</v>
+        <v>206.6387140882597</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.501705603161634</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.6169430009928</v>
+        <v>137.5605219116941</v>
       </c>
       <c r="S8" t="n">
-        <v>206.7520030198899</v>
+        <v>206.7520030198902</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6601518616971</v>
+        <v>215.7841061199857</v>
       </c>
       <c r="U8" t="n">
         <v>251.3376904141312</v>
@@ -27950,7 +27950,7 @@
         <v>111.7211239510227</v>
       </c>
       <c r="I9" t="n">
-        <v>80.68706565603917</v>
+        <v>87.56311139775083</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.85142272613686</v>
+        <v>96.85142272613726</v>
       </c>
       <c r="S9" t="n">
-        <v>164.6375827080073</v>
+        <v>164.6375827080074</v>
       </c>
       <c r="T9" t="n">
         <v>193.0740324797449</v>
@@ -27989,7 +27989,7 @@
         <v>219.0618327950844</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28026,16 +28026,16 @@
         <v>167.9463331014895</v>
       </c>
       <c r="H10" t="n">
-        <v>154.9541809537651</v>
+        <v>161.8302266954766</v>
       </c>
       <c r="I10" t="n">
-        <v>154.1078402176738</v>
+        <v>154.107840217674</v>
       </c>
       <c r="J10" t="n">
-        <v>90.20268974894645</v>
+        <v>90.20268974894682</v>
       </c>
       <c r="K10" t="n">
-        <v>10.20636277447071</v>
+        <v>17.08240851618276</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.54748230140288</v>
+        <v>75.54748230140333</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2859333138065</v>
+        <v>169.2295122245073</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2385355405171</v>
+        <v>223.2385355405172</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7548281485038</v>
+        <v>220.8787824067924</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3165941061108</v>
+        <v>279.4405483643993</v>
       </c>
       <c r="V10" t="n">
-        <v>246.0812222345286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859324</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="C26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="D26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="E26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="F26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="G26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="H26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="I26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="T26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="U26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="V26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="W26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="X26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="Y26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="C28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="D28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="E28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="F28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="G28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="H28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="I28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="J28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="K28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="M28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="N28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="O28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="P28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="R28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="S28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="T28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="U28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="V28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="W28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="X28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467355</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="C29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="D29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="E29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="F29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="G29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="H29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="I29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="T29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="U29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="V29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="W29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="X29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="Y29" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="C31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="D31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="E31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="F31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="G31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="H31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="I31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="J31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="K31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="M31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="N31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="O31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="P31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="R31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="S31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="T31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="U31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="V31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="W31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="X31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467349</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="C32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="D32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="E32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="F32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="G32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="H32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="T32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="U32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="V32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="W32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="X32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="Y32" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="C34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="D34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="E34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="F34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="G34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="H34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="I34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="J34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="K34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="L34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="M34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="N34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="O34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="P34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="R34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="S34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="T34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="U34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="V34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="W34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="X34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.72285388297204</v>
+        <v>41.72285388297218</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859514</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859514</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859395</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09953117131565276</v>
+        <v>0.09953117131564089</v>
       </c>
       <c r="H8" t="n">
-        <v>1.019323608236429</v>
+        <v>1.019323608236308</v>
       </c>
       <c r="I8" t="n">
-        <v>3.837175482146706</v>
+        <v>3.837175482146249</v>
       </c>
       <c r="J8" t="n">
-        <v>8.447583751451891</v>
+        <v>8.447583751450884</v>
       </c>
       <c r="K8" t="n">
-        <v>12.66073823324347</v>
+        <v>12.66073823324196</v>
       </c>
       <c r="L8" t="n">
-        <v>15.70676531739488</v>
+        <v>15.70676531739301</v>
       </c>
       <c r="M8" t="n">
-        <v>17.47680278527962</v>
+        <v>17.47680278527754</v>
       </c>
       <c r="N8" t="n">
-        <v>17.75959572578022</v>
+        <v>17.75959572577811</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7698826410102</v>
+        <v>16.7698826410082</v>
       </c>
       <c r="P8" t="n">
-        <v>14.31270684915502</v>
+        <v>14.31270684915332</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.7482467764132</v>
+        <v>10.74824677641192</v>
       </c>
       <c r="R8" t="n">
-        <v>6.252174940156878</v>
+        <v>6.252174940156133</v>
       </c>
       <c r="S8" t="n">
-        <v>2.26806656635544</v>
+        <v>2.268066566355169</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4356977024342701</v>
+        <v>0.4356977024342182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007962493705252219</v>
+        <v>0.00796249370525127</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05325387152044576</v>
+        <v>0.05325387152043941</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5143202854737788</v>
+        <v>0.5143202854737176</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83352145366447</v>
+        <v>1.833521453664252</v>
       </c>
       <c r="J9" t="n">
-        <v>5.031323010622466</v>
+        <v>5.031323010621866</v>
       </c>
       <c r="K9" t="n">
-        <v>8.599332402492331</v>
+        <v>8.599332402491306</v>
       </c>
       <c r="L9" t="n">
-        <v>11.56286363868275</v>
+        <v>11.56286363868137</v>
       </c>
       <c r="M9" t="n">
-        <v>13.49331648129891</v>
+        <v>13.4933164812973</v>
       </c>
       <c r="N9" t="n">
-        <v>13.8504444179426</v>
+        <v>13.85044441794095</v>
       </c>
       <c r="O9" t="n">
-        <v>12.67045073846325</v>
+        <v>12.67045073846174</v>
       </c>
       <c r="P9" t="n">
-        <v>10.16915376428582</v>
+        <v>10.16915376428461</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.797809985662515</v>
+        <v>6.797809985661704</v>
       </c>
       <c r="R9" t="n">
-        <v>3.306411426506274</v>
+        <v>3.30641142650588</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9891673065310861</v>
+        <v>0.9891673065309682</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2146504733653054</v>
+        <v>0.2146504733652798</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003503544178976696</v>
+        <v>0.003503544178976278</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04464625696925492</v>
+        <v>0.0446462569692496</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3969458119630122</v>
+        <v>0.3969458119629649</v>
       </c>
       <c r="I10" t="n">
-        <v>1.342634709584503</v>
+        <v>1.342634709584343</v>
       </c>
       <c r="J10" t="n">
-        <v>3.156490367726323</v>
+        <v>3.156490367725946</v>
       </c>
       <c r="K10" t="n">
-        <v>5.187083309700707</v>
+        <v>5.187083309700088</v>
       </c>
       <c r="L10" t="n">
-        <v>6.637680786138137</v>
+        <v>6.637680786137346</v>
       </c>
       <c r="M10" t="n">
-        <v>6.998503717462387</v>
+        <v>6.998503717461552</v>
       </c>
       <c r="N10" t="n">
-        <v>6.832094941486078</v>
+        <v>6.832094941485264</v>
       </c>
       <c r="O10" t="n">
-        <v>6.310545485072507</v>
+        <v>6.310545485071755</v>
       </c>
       <c r="P10" t="n">
-        <v>5.399761842899702</v>
+        <v>5.399761842899058</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.738515208580065</v>
+        <v>3.738515208579619</v>
       </c>
       <c r="R10" t="n">
-        <v>2.007458063363043</v>
+        <v>2.007458063362804</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7780624964551059</v>
+        <v>0.7780624964550131</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1907612797777255</v>
+        <v>0.1907612797777028</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00243525038014118</v>
+        <v>0.00243525038014089</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33026,13 +33026,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,13 +33734,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.876045741711437</v>
+        <v>5.84067814987618</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N8" t="n">
-        <v>6.598225711743297</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.757547561867117</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.284731684364009</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.313494027379286</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597847</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36048,7 +36048,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120771</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36057,7 +36057,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>785.7552219287309</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36525,10 +36525,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412332</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>775.6945809694695</v>
       </c>
       <c r="P26" t="n">
-        <v>688.9016106857769</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>85.51257166773962</v>
+        <v>85.51257166773978</v>
       </c>
       <c r="K28" t="n">
-        <v>245.981814598993</v>
+        <v>245.9818145989931</v>
       </c>
       <c r="L28" t="n">
-        <v>359.6915272248715</v>
+        <v>359.6915272248717</v>
       </c>
       <c r="M28" t="n">
-        <v>387.5675344481572</v>
+        <v>387.5675344481574</v>
       </c>
       <c r="N28" t="n">
-        <v>384.7911012222135</v>
+        <v>384.7911012222136</v>
       </c>
       <c r="O28" t="n">
-        <v>342.2872852773132</v>
+        <v>342.2872852773133</v>
       </c>
       <c r="P28" t="n">
-        <v>274.8912261997838</v>
+        <v>274.891226199784</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.328393592567</v>
+        <v>118.3283935925672</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>872.2791157844616</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,10 +36847,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>688.9016106857778</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>85.51257166773962</v>
+        <v>85.51257166773971</v>
       </c>
       <c r="K31" t="n">
-        <v>245.981814598993</v>
+        <v>245.9818145989931</v>
       </c>
       <c r="L31" t="n">
-        <v>359.6915272248715</v>
+        <v>359.6915272248716</v>
       </c>
       <c r="M31" t="n">
-        <v>387.5675344481572</v>
+        <v>387.5675344481573</v>
       </c>
       <c r="N31" t="n">
-        <v>384.7911012222135</v>
+        <v>384.7911012222136</v>
       </c>
       <c r="O31" t="n">
-        <v>342.2872852773132</v>
+        <v>342.2872852773133</v>
       </c>
       <c r="P31" t="n">
-        <v>274.8912261997838</v>
+        <v>274.8912261997839</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.328393592567</v>
+        <v>118.3283935925672</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,19 +37075,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>722.68156428302</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>538.4999317723733</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.30127049603826</v>
+        <v>87.3012704960384</v>
       </c>
       <c r="K34" t="n">
-        <v>247.7705134272916</v>
+        <v>247.7705134272917</v>
       </c>
       <c r="L34" t="n">
-        <v>361.4802260531702</v>
+        <v>361.4802260531703</v>
       </c>
       <c r="M34" t="n">
-        <v>389.3562332764559</v>
+        <v>389.356233276456</v>
       </c>
       <c r="N34" t="n">
-        <v>386.5798000505121</v>
+        <v>386.5798000505122</v>
       </c>
       <c r="O34" t="n">
-        <v>344.0759841056118</v>
+        <v>344.075984105612</v>
       </c>
       <c r="P34" t="n">
-        <v>276.6799250280825</v>
+        <v>276.6799250280826</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.1170924208657</v>
+        <v>120.1170924208658</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37315,19 +37315,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356111</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5312714465582</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165864</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629147</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737872</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165864</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629147</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>574.0516558380597</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>79.0163145676914</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,10 +37953,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564876</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>827.137011779454</v>
+        <v>793.2729108488541</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
